--- a/rawDataMS.xlsx
+++ b/rawDataMS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hemingyang/Desktop/ResearchFall23/ICPMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF9632F-884D-E949-9932-74EE91A3C5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAD4B1E-1204-314F-829C-67900DF963A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3640" yWindow="2660" windowWidth="27640" windowHeight="16940" xr2:uid="{E2D92D57-425D-3945-AD2D-323D2DBF3E2D}"/>
   </bookViews>
@@ -606,7 +606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D76123-5374-7E42-A45A-163F37607E44}">
   <dimension ref="A1:K114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
